--- a/export/DSCCresult.xlsx
+++ b/export/DSCCresult.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DSCCFile" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DSCCFile1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -554,140 +553,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Document</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>URL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EP Study MIL-DTL-32139/15 and /16 -- Dated 4/5/2023 </t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Connectors, Electrical, Rectangular, Nanominiature, Dual Row, Plug, Receptacle, Polarized Shell, Pin, Sockets Contacts, Vertical PCB Surface Mount Shell </t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>https://landandmaritimeapps.dla.mil/Downloads/MilSpec/Docs/5935EPStudies/epsdtl32139.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MIL-DTL-17/224A w/Amendment 1 -- Dated 2/27/2023 </t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cable, Radio Frequency, Flexible, Coaxial, 50 Ohms, Low Smoke, Low Loss Diameter .500 </t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>https://landandmaritimeapps.dla.mil/Downloads/MilSpec/Docs/MIL-DTL-17/dtl17ss224.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MIL-DTL-39030/20D w/Amendment 1 -- Dated 1/31/2023 </t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dummy Loads, Electrical Type XIV (Tab Contact), Stripline, Low Power </t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://landandmaritimeapps.dla.mil/Downloads/MilSpec/Docs/MIL-DTL-39030/dtl39030ss20.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MIL-DTL-39030/21B w/Amendment 1 -- Dated 1/31/2023 </t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dummy Loads, Electrical, Type XIV (Tab Contact), Stripline, Medium Power </t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://landandmaritimeapps.dla.mil/Downloads/MilSpec/Docs/MIL-DTL-39030/dtl39030ss21.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MIL-DTL-83503 (Rev C) -- Dated 3/6/2023 </t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Connectors, Electrical, Flat Cable, and/or Printed Wiring Board, Nonenvironmental General Specification for (w/Amendment 2) </t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://landandmaritimeapps.dla.mil/Downloads/MilSpec/Docs/MIL-DTL-83503/dtl83503.pdf</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>